--- a/ResultadoEleicoesDistritos/ÉVORA_VENDAS NOVAS.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_VENDAS NOVAS.xlsx
@@ -597,64 +597,64 @@
         <v>3005</v>
       </c>
       <c r="H2" t="n">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="I2" t="n">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="J2" t="n">
-        <v>1304</v>
+        <v>1234</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="M2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S2" t="n">
         <v>141</v>
       </c>
       <c r="T2" t="n">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>1933</v>
+        <v>1941</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
